--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H2">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I2">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J2">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.101297</v>
+        <v>0.1863256666666667</v>
       </c>
       <c r="N2">
-        <v>0.303891</v>
+        <v>0.5589770000000001</v>
       </c>
       <c r="O2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="P2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="Q2">
-        <v>4.464764985013668</v>
+        <v>18.79550312083089</v>
       </c>
       <c r="R2">
-        <v>40.18288486512301</v>
+        <v>169.159528087478</v>
       </c>
       <c r="S2">
-        <v>0.0006936508272711665</v>
+        <v>0.002407073697327595</v>
       </c>
       <c r="T2">
-        <v>0.0006936508272711668</v>
+        <v>0.002407073697327595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H3">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I3">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J3">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.489707</v>
       </c>
       <c r="O3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="P3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="Q3">
-        <v>256.9586839088635</v>
+        <v>588.0883157999665</v>
       </c>
       <c r="R3">
-        <v>2312.628155179771</v>
+        <v>5292.794842199698</v>
       </c>
       <c r="S3">
-        <v>0.03992138539568565</v>
+        <v>0.07531439342525062</v>
       </c>
       <c r="T3">
-        <v>0.03992138539568568</v>
+        <v>0.07531439342525062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H4">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I4">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J4">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250245</v>
+        <v>5.212463666666667</v>
       </c>
       <c r="N4">
-        <v>12.750735</v>
+        <v>15.637391</v>
       </c>
       <c r="O4">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="P4">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
       <c r="Q4">
-        <v>187.3337320328284</v>
+        <v>525.8045167192083</v>
       </c>
       <c r="R4">
-        <v>1686.003588295455</v>
+        <v>4732.240650472874</v>
       </c>
       <c r="S4">
-        <v>0.02910437584879256</v>
+        <v>0.06733792726879149</v>
       </c>
       <c r="T4">
-        <v>0.02910437584879256</v>
+        <v>0.06733792726879148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H5">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I5">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J5">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06457233333333333</v>
+        <v>0.01146633333333333</v>
       </c>
       <c r="N5">
-        <v>0.193717</v>
+        <v>0.034399</v>
       </c>
       <c r="O5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="P5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="Q5">
-        <v>2.846089152366778</v>
+        <v>1.156660313131778</v>
       </c>
       <c r="R5">
-        <v>25.614802371301</v>
+        <v>10.409942818186</v>
       </c>
       <c r="S5">
-        <v>0.0004421715592317263</v>
+        <v>0.0001481294008776246</v>
       </c>
       <c r="T5">
-        <v>0.0004421715592317265</v>
+        <v>0.0001481294008776245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>1619.290924</v>
       </c>
       <c r="I6">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J6">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.101297</v>
+        <v>0.1863256666666667</v>
       </c>
       <c r="N6">
-        <v>0.303891</v>
+        <v>0.5589770000000001</v>
       </c>
       <c r="O6">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="P6">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="Q6">
-        <v>54.67643757614267</v>
+        <v>100.5718203138609</v>
       </c>
       <c r="R6">
-        <v>492.087938185284</v>
+        <v>905.146382824748</v>
       </c>
       <c r="S6">
-        <v>0.00849459182828983</v>
+        <v>0.01287987779915039</v>
       </c>
       <c r="T6">
-        <v>0.00849459182828983</v>
+        <v>0.01287987779915039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1619.290924</v>
       </c>
       <c r="I7">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J7">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.489707</v>
       </c>
       <c r="O7">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="P7">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="Q7">
         <v>3146.769312057696</v>
@@ -883,10 +883,10 @@
         <v>28320.92380851927</v>
       </c>
       <c r="S7">
-        <v>0.4888855614723154</v>
+        <v>0.4029956311314153</v>
       </c>
       <c r="T7">
-        <v>0.4888855614723155</v>
+        <v>0.4029956311314154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1619.290924</v>
       </c>
       <c r="I8">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J8">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.250245</v>
+        <v>5.212463666666667</v>
       </c>
       <c r="N8">
-        <v>12.750735</v>
+        <v>15.637391</v>
       </c>
       <c r="O8">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="P8">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
       <c r="Q8">
-        <v>2294.127717758794</v>
+        <v>2813.498369037698</v>
       </c>
       <c r="R8">
-        <v>20647.14945982914</v>
+        <v>25321.48532133929</v>
       </c>
       <c r="S8">
-        <v>0.3564182201371187</v>
+        <v>0.360314798600898</v>
       </c>
       <c r="T8">
-        <v>0.3564182201371186</v>
+        <v>0.3603147986008979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>1619.290924</v>
       </c>
       <c r="I9">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J9">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06457233333333333</v>
+        <v>0.01146633333333333</v>
       </c>
       <c r="N9">
-        <v>0.193717</v>
+        <v>0.034399</v>
       </c>
       <c r="O9">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="P9">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="Q9">
-        <v>34.85379776938978</v>
+        <v>6.189109832741778</v>
       </c>
       <c r="R9">
-        <v>313.684179924508</v>
+        <v>55.70198849467599</v>
       </c>
       <c r="S9">
-        <v>0.005414924578881312</v>
+        <v>0.000792617435803216</v>
       </c>
       <c r="T9">
-        <v>0.005414924578881312</v>
+        <v>0.000792617435803216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H10">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I10">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J10">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.101297</v>
+        <v>0.1863256666666667</v>
       </c>
       <c r="N10">
-        <v>0.303891</v>
+        <v>0.5589770000000001</v>
       </c>
       <c r="O10">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="P10">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="Q10">
-        <v>4.478795936374667</v>
+        <v>10.02396442566634</v>
       </c>
       <c r="R10">
-        <v>40.30916342737201</v>
+        <v>90.215679830997</v>
       </c>
       <c r="S10">
-        <v>0.0006958306913965185</v>
+        <v>0.001283733718477992</v>
       </c>
       <c r="T10">
-        <v>0.0006958306913965187</v>
+        <v>0.001283733718477992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H11">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I11">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J11">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.489707</v>
       </c>
       <c r="O11">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="P11">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="Q11">
-        <v>257.7662011707604</v>
+        <v>313.6375929301697</v>
       </c>
       <c r="R11">
-        <v>2319.895810536844</v>
+        <v>2822.738336371527</v>
       </c>
       <c r="S11">
-        <v>0.04004684217081956</v>
+        <v>0.04016645873121893</v>
       </c>
       <c r="T11">
-        <v>0.04004684217081958</v>
+        <v>0.04016645873121893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H12">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I12">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J12">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.250245</v>
+        <v>5.212463666666667</v>
       </c>
       <c r="N12">
-        <v>12.750735</v>
+        <v>15.637391</v>
       </c>
       <c r="O12">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="P12">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
       <c r="Q12">
-        <v>187.9224462185134</v>
+        <v>280.4205738236724</v>
       </c>
       <c r="R12">
-        <v>1691.30201596662</v>
+        <v>2523.785164413051</v>
       </c>
       <c r="S12">
-        <v>0.02919583913595266</v>
+        <v>0.03591247241966</v>
       </c>
       <c r="T12">
-        <v>0.02919583913595266</v>
+        <v>0.03591247241966</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H13">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I13">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J13">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06457233333333333</v>
+        <v>0.01146633333333333</v>
       </c>
       <c r="N13">
-        <v>0.193717</v>
+        <v>0.034399</v>
       </c>
       <c r="O13">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="P13">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="Q13">
-        <v>2.855033259973778</v>
+        <v>0.6168667982376667</v>
       </c>
       <c r="R13">
-        <v>25.695299339764</v>
+        <v>5.551801184139</v>
       </c>
       <c r="S13">
-        <v>0.0004435611256840754</v>
+        <v>7.899995202293556E-05</v>
       </c>
       <c r="T13">
-        <v>0.0004435611256840756</v>
+        <v>7.899995202293555E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H14">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J14">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.101297</v>
+        <v>0.1863256666666667</v>
       </c>
       <c r="N14">
-        <v>0.303891</v>
+        <v>0.5589770000000001</v>
       </c>
       <c r="O14">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="P14">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="Q14">
-        <v>0.01546629608533334</v>
+        <v>0.04761881587011111</v>
       </c>
       <c r="R14">
-        <v>0.139196664768</v>
+        <v>0.428569342831</v>
       </c>
       <c r="S14">
-        <v>2.402860869591646E-06</v>
+        <v>6.098373554672008E-06</v>
       </c>
       <c r="T14">
-        <v>2.402860869591646E-06</v>
+        <v>6.098373554672008E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H15">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J15">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.489707</v>
       </c>
       <c r="O15">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="P15">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="Q15">
-        <v>0.8901250346595555</v>
+        <v>1.489934536224555</v>
       </c>
       <c r="R15">
-        <v>8.011125311936</v>
+        <v>13.409410826021</v>
       </c>
       <c r="S15">
-        <v>0.0001382908100961302</v>
+        <v>0.0001908106534754773</v>
       </c>
       <c r="T15">
-        <v>0.0001382908100961302</v>
+        <v>0.0001908106534754774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H16">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J16">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.250245</v>
+        <v>5.212463666666667</v>
       </c>
       <c r="N16">
-        <v>12.750735</v>
+        <v>15.637391</v>
       </c>
       <c r="O16">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="P16">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
       <c r="Q16">
-        <v>0.6489387405866667</v>
+        <v>1.332137176874778</v>
       </c>
       <c r="R16">
-        <v>5.84044866528</v>
+        <v>11.989234591873</v>
       </c>
       <c r="S16">
-        <v>0.0001008198406337556</v>
+        <v>0.0001706021030175948</v>
       </c>
       <c r="T16">
-        <v>0.0001008198406337557</v>
+        <v>0.0001706021030175948</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H17">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J17">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06457233333333333</v>
+        <v>0.01146633333333333</v>
       </c>
       <c r="N17">
-        <v>0.193717</v>
+        <v>0.034399</v>
       </c>
       <c r="O17">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="P17">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="Q17">
-        <v>0.009859076046222222</v>
+        <v>0.002930424055222222</v>
       </c>
       <c r="R17">
-        <v>0.088731684416</v>
+        <v>0.02637381649699999</v>
       </c>
       <c r="S17">
-        <v>1.531716961261389E-06</v>
+        <v>3.752890582388227E-07</v>
       </c>
       <c r="T17">
-        <v>1.531716961261389E-06</v>
+        <v>3.752890582388227E-07</v>
       </c>
     </row>
   </sheetData>
